--- a/biology/Botanique/Dictyota/Dictyota.xlsx
+++ b/biology/Botanique/Dictyota/Dictyota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictyota est un genre d’algues brunes de la famille des Dictyotaceae.
-En France certaines algues de ce genre se montrent particulièrement résistantes dans les zones battues par la marée où les macro-algues sont rares et où les algues rouges dominent. Dictyota dichotoma est l’une des rares algues brunes à survivre sur la côte basque avec quelques espèces d’un autre genre d'algues brunes : Colpomenia[3].
+En France certaines algues de ce genre se montrent particulièrement résistantes dans les zones battues par la marée où les macro-algues sont rares et où les algues rouges dominent. Dictyota dichotoma est l’une des rares algues brunes à survivre sur la côte basque avec quelques espèces d’un autre genre d'algues brunes : Colpomenia.
 L'espèce-type (l'holotype) est Dictyota dichotoma.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (23 octobre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (23 octobre 2017) :
 Dictyota acutiloba J.Agardh
 Dictyota adhaerens Noda
 Dictyota adnata Zanardini
@@ -623,7 +637,7 @@
 Dictyota virellus Noda
 Dictyota vittata Kraft
 Dictyota vivesii M.Howe
-Selon ITIS      (23 octobre 2017)[4] :
+Selon ITIS      (23 octobre 2017) :
 Dictyota acutiloba J. Ag.
 Dictyota bartayresiana Lamouroux, 1809
 Dictyota binghamiae
@@ -641,7 +655,7 @@
 Dictyota mertensii (Martius) Kuetzing
 Dictyota patens
 Dictyota vieillardi Kuetzing
-Selon World Register of Marine Species                               (23 octobre 2017)[2] :
+Selon World Register of Marine Species                               (23 octobre 2017) :
 Dictyota acutiloba J.Agardh, 1848
 Dictyota adhaerens Noda, 1965
 Dictyota adnata Zanardini, 1878
